--- a/[3080ti]result.xlsx
+++ b/[3080ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,15 +510,40 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>simulation time(sec)</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>total prepare time(sec)</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>total upload time(sec)</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>total download time(sec)</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>total network delay time(sec)</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>elapsed time(secs)</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>average upload data(bytes)</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>average download data(bytes)</t>
         </is>
@@ -556,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -567,22 +592,37 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>0.204660177230835</v>
+        <v>-1</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>204.660177230835</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>37.29597139358521</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>835.2</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>232</v>
+        <v>276.6156148910521</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>9.404930906295773</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0.2336461544036865</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0.0373828125</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>0.01869140625</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>1188.138758420944</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>27782</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>7888</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -628,22 +668,37 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>0.3064789772033691</v>
+        <v>-1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>306.4789772033691</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>37.66130018234253</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>835.2</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>232</v>
+        <v>291.4293435601626</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>9.908597681045528</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>0.7340855598449707</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>0.042140625</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>0.0210703125</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>1166.123376131058</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>27167.2</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>7888</v>
       </c>
     </row>
     <row r="4">
@@ -678,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -689,22 +744,37 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.2037372589111328</v>
+        <v>-1</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>203.7372589111328</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>40.78308582305908</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>928</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>232</v>
+        <v>285.300960148082</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>9.700232645034788</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0.1294267177581787</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>0.0391953125</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>0.01959765625</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>1383.336414575577</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>33303.6</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>7888</v>
       </c>
     </row>
     <row r="5">
@@ -739,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -750,22 +820,37 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>0.3055763244628906</v>
+        <v>-1</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>305.5763244628906</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>39.57723212242126</v>
-      </c>
-      <c r="R5" s="3" t="n">
-        <v>881.6</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>232</v>
+        <v>285.5198913462021</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>9.707676305770871</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0.1296124458312988</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>0.0441796875</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>0.02208984375</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>1208.362776994705</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>28431.6</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>7888</v>
       </c>
     </row>
     <row r="6">
@@ -800,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
@@ -811,22 +896,37 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>0.3058724403381348</v>
+        <v>-1</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>305.8724403381348</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>37.12107253074646</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>823.6</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>232</v>
+        <v>300.6105598449706</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>10.52136959457397</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0.9197742938995361</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0.05029687500000003</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0.02514843750000002</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>1237.464079380035</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>28965.2</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>8120</v>
       </c>
     </row>
     <row r="7">
@@ -861,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
@@ -872,22 +972,37 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.3081374168395996</v>
+        <v>-1</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>308.1374168395996</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>41.77037334442139</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>951.2</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>232</v>
+        <v>307.084558698866</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>11.05504411315918</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>0.8264069557189941</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>0.04372656250000002</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>0.02186328125000001</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>1300.644402265549</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>30682</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>8352</v>
       </c>
     </row>
     <row r="8">
@@ -922,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -933,22 +1048,37 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>0.2040801048278809</v>
+        <v>-1</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>204.0801048278809</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>36.62859988212585</v>
-      </c>
-      <c r="R8" s="3" t="n">
-        <v>812</v>
-      </c>
-      <c r="S8" s="3" t="n">
-        <v>232</v>
+        <v>282.9921350479124</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>9.621732591629023</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>0.02912998199462891</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0.04803125</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>0.024015625</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>1249.436869859695</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>29580</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>7888</v>
       </c>
     </row>
     <row r="9">
@@ -983,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -994,22 +1124,37 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>0.3059780597686768</v>
+        <v>-1</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>305.9780597686768</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>35.33322668075562</v>
-      </c>
-      <c r="R9" s="3" t="n">
-        <v>765.6</v>
-      </c>
-      <c r="S9" s="3" t="n">
-        <v>232</v>
+        <v>282.6004723380593</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>9.608416059494013</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>0.1307780742645264</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0.03715624999999999</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>0.018578125</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>1130.832909107208</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>26401.6</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>7888</v>
       </c>
     </row>
     <row r="10">
@@ -1044,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -1055,22 +1200,37 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.204096794128418</v>
+        <v>-1</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>204.096794128418</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>40.89626908302307</v>
-      </c>
-      <c r="R10" s="3" t="n">
-        <v>939.6</v>
-      </c>
-      <c r="S10" s="3" t="n">
-        <v>232</v>
+        <v>285.2488678202909</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>9.698461505889888</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0.2282145023345947</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>0.04214062499999999</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>0.0210703125</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>1325.725610971451</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>31749.2</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>7888</v>
       </c>
     </row>
     <row r="11">
@@ -1105,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -1116,22 +1276,37 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>0.2045049667358398</v>
+        <v>-1</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>204.5049667358398</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>39.26755976676941</v>
-      </c>
-      <c r="R11" s="3" t="n">
-        <v>881.6</v>
-      </c>
-      <c r="S11" s="3" t="n">
-        <v>232</v>
+        <v>284.8867956049301</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>9.686151050567624</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>0.3295750617980957</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>0.03670312500000001</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>0.01835156250000001</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>1239.335948705673</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>29440.8</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>7888</v>
       </c>
     </row>
     <row r="12">
@@ -1163,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
@@ -1177,22 +1352,1481 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>0.2044358253479004</v>
+        <v>-1</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>204.4358253479004</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>40.69849038124084</v>
-      </c>
-      <c r="R12" s="3" t="n">
-        <v>916.4</v>
-      </c>
-      <c r="S12" s="3" t="n">
-        <v>232</v>
+        <v>12.15877861022949</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0.3039694652557372</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0.2195351123809814</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>0.03239843749999999</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>0.01619921875</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>508.6510729789734</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>34718.8</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>3.950314636230468</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>0.09875786590576172</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0.02081441879272461</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>0.02582812500000001</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0.0129140625</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>504.1719708442688</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <v>34382.4</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>25</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>8.525594940185547</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>0.2131398735046387</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>0.1220183372497559</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>0.03466406250000001</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>0.01733203125</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>509.996621131897</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>34834.8</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>25</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>12.07798568725586</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0.3019496421813964</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0.2207131385803223</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>0.02809375</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>0.014046875</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>526.9981455802917</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>36818.4</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>50</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>25</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>8.389633255004885</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>0.2097408313751221</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0.1159412860870361</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>0.039875</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>0.0199375</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>526.6896622180939</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>36841.6</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>50</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>25</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>8.171111679077146</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>0.2042777919769287</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>0.1188774108886719</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>0.03285156250000001</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>0.01642578125</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>513.5322675704956</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>35322</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>50</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>26</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>19.64457233135517</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>0.5107588806152344</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>0.422924280166626</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>0.0344375</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>0.01721875</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>529.2772357463837</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>36145.6</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>50</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>25</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>12.35168823242188</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>0.3087922058105469</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>0.2200241088867188</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>0.03353125</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>0.016765625</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>493.4029202461243</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <v>33036.8</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>50</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>25</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>3.993962707519531</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>0.09984906768798828</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>0.01677989959716797</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>0.0323984375</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>0.01619921875</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>523.4334182739258</v>
+      </c>
+      <c r="W20" s="3" t="n">
+        <v>36458.8</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>50</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>25</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>16.41086769104004</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>0.4102716922760011</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>0.3228054046630859</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>0.033984375</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>0.0169921875</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>524.5364758968353</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>36540</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>50</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>25</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>20.09430496215821</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>0.5023576240539552</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>0.4221227169036865</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>0.02809375</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>0.014046875</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>235.8160016536713</v>
+      </c>
+      <c r="W22" s="3" t="n">
+        <v>30716.8</v>
+      </c>
+      <c r="X22" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>50</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>25</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>11.88060974121094</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>0.2970152435302735</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>0.2169890403747559</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>251.2698278427124</v>
+      </c>
+      <c r="W23" s="3" t="n">
+        <v>34289.6</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>50</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>25</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>4.36116798400879</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>0.1090291996002198</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>0.01932072639465332</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>0.03421093750000001</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>0.01710546875000001</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>253.602753162384</v>
+      </c>
+      <c r="W24" s="3" t="n">
+        <v>34823.2</v>
+      </c>
+      <c r="X24" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>50</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>25</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>23.91393058776856</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>0.597848264694214</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>0.5225989818572998</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>0.0274140625</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>0.01370703125</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>235.4744205474854</v>
+      </c>
+      <c r="W25" s="3" t="n">
+        <v>30647.2</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>50</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>25</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>3.832536392211915</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>0.09581340980529786</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>0.01604628562927246</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>0.03307812500000001</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>0.0165390625</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2" t="n">
+        <v>247.9071261882782</v>
+      </c>
+      <c r="W26" s="3" t="n">
+        <v>33547.2</v>
+      </c>
+      <c r="X26" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>50</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>26</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>19.57839863116925</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>0.5090383644104004</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0.420428991317749</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>0.03534375000000001</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>0.017671875</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2" t="n">
+        <v>274.6740071773529</v>
+      </c>
+      <c r="W27" s="3" t="n">
+        <v>38604.8</v>
+      </c>
+      <c r="X27" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>50</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>25</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>7.773225936889649</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>0.1943306484222412</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>0.1174616813659668</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>0.0287734375</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>0.01438671875</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>235.7773375511169</v>
+      </c>
+      <c r="W28" s="3" t="n">
+        <v>30786.4</v>
+      </c>
+      <c r="X28" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>50</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>25</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>16.2245987701416</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>0.4056149692535401</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>0.3193573951721191</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>0.0308125</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>0.01540625</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>247.2668685913086</v>
+      </c>
+      <c r="W29" s="3" t="n">
+        <v>33315.2</v>
+      </c>
+      <c r="X29" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>50</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>26</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>37.47208206470197</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>0.974274133682251</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>0.9121303558349609</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>0.03103906250000001</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>0.01551953125</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>286.0681943893433</v>
+      </c>
+      <c r="W30" s="3" t="n">
+        <v>41783.2</v>
+      </c>
+      <c r="X30" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>50</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>27</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>73.19561958312987</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>1.976281728744506</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>1.911469459533691</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>0.038515625</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>0.0192578125</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2" t="n">
+        <v>279.0265536308289</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <v>39022.4</v>
+      </c>
+      <c r="X31" s="3" t="n">
+        <v>6264</v>
       </c>
     </row>
   </sheetData>

--- a/[3080ti]result.xlsx
+++ b/[3080ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2829,6 +2829,1146 @@
         <v>6264</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>25</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>16.03992813110352</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>0.4009982032775879</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>0.3211431503295898</v>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>0.02741406250000001</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>0.01370703125</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2" t="n">
+        <v>215.1917424201965</v>
+      </c>
+      <c r="W32" s="3" t="n">
+        <v>26007.2</v>
+      </c>
+      <c r="X32" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>25</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>7.971851577758793</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>0.1992962894439698</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>0.1188373565673828</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>0.02900000000000001</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2" t="n">
+        <v>221.1710135936737</v>
+      </c>
+      <c r="W33" s="3" t="n">
+        <v>27329.6</v>
+      </c>
+      <c r="X33" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>25</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>11.79880767822265</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>0.2949701919555663</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>0.2216746807098389</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>0.02424218750000001</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>0.01212109375</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>223.7477288246155</v>
+      </c>
+      <c r="W34" s="3" t="n">
+        <v>28002.4</v>
+      </c>
+      <c r="X34" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>50</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>7.695029144287114</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>0.1923757286071778</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>0.1196146011352539</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0.0251484375</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>0.01257421875</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>234.0403180122375</v>
+      </c>
+      <c r="W35" s="3" t="n">
+        <v>30415.2</v>
+      </c>
+      <c r="X35" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>50</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>25</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>3.744226989746092</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>0.09360567474365232</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>0.01888179779052734</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>0.02424218750000001</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>0.01212109375000001</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>213.1953451633453</v>
+      </c>
+      <c r="W36" s="3" t="n">
+        <v>25682.4</v>
+      </c>
+      <c r="X36" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>25</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>19.68155456542968</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>0.492038864135742</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>0.4217805862426758</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>0.02197656250000001</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>0.01098828125000001</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2" t="n">
+        <v>218.0011088848114</v>
+      </c>
+      <c r="W37" s="3" t="n">
+        <v>26610.4</v>
+      </c>
+      <c r="X37" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>50</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>25</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>11.72665367126464</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>0.2931663417816161</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>0.2218012809753418</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>0.02152343750000001</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>0.01076171875000001</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2" t="n">
+        <v>202.1604783535004</v>
+      </c>
+      <c r="W38" s="3" t="n">
+        <v>23084</v>
+      </c>
+      <c r="X38" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>50</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>25</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>15.71591903686524</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>0.3928979759216308</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>0.3206460475921631</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>0.0269609375</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>0.01348046875</v>
+      </c>
+      <c r="U39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2" t="n">
+        <v>225.1903052330017</v>
+      </c>
+      <c r="W39" s="3" t="n">
+        <v>28280.8</v>
+      </c>
+      <c r="X39" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>50</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>25</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="1" t="n">
+        <v>3.684120788574218</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>0.09210301971435544</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>0.01828336715698242</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>0.02446875000000001</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>0.012234375</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2" t="n">
+        <v>233.6383082866669</v>
+      </c>
+      <c r="W40" s="3" t="n">
+        <v>30345.6</v>
+      </c>
+      <c r="X40" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>50</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>25</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>11.77570190429687</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>0.2943925476074218</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>0.2217724323272705</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>0.02378906250000001</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>0.01189453125000001</v>
+      </c>
+      <c r="U41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2" t="n">
+        <v>223.4557244777679</v>
+      </c>
+      <c r="W41" s="3" t="n">
+        <v>27956</v>
+      </c>
+      <c r="X41" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>50</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>25</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>20.01017143249512</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>0.500254285812378</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>0.4234592914581299</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>0.02696093750000001</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>0.01348046875</v>
+      </c>
+      <c r="U42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <v>250.4526529312134</v>
+      </c>
+      <c r="W42" s="3" t="n">
+        <v>34080.8</v>
+      </c>
+      <c r="X42" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>50</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>25</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>12.30079200744629</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>0.3075198001861572</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>0.2205438613891602</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>0.0319453125</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>0.01597265625</v>
+      </c>
+      <c r="U43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <v>242.6824159622192</v>
+      </c>
+      <c r="W43" s="3" t="n">
+        <v>32271.2</v>
+      </c>
+      <c r="X43" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>50</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>25</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <v>4.291030120849609</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>0.1072757530212402</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>0.02089357376098633</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>0.03171875</v>
+      </c>
+      <c r="T44" s="1" t="n">
+        <v>0.015859375</v>
+      </c>
+      <c r="U44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <v>257.5064330101013</v>
+      </c>
+      <c r="W44" s="3" t="n">
+        <v>35728</v>
+      </c>
+      <c r="X44" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>25</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="1" t="n">
+        <v>12.02007934570313</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>0.3005019836425783</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>0.2196750640869141</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>0.030359375</v>
+      </c>
+      <c r="T45" s="1" t="n">
+        <v>0.0151796875</v>
+      </c>
+      <c r="U45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2" t="n">
+        <v>241.8436985015869</v>
+      </c>
+      <c r="W45" s="3" t="n">
+        <v>32108.8</v>
+      </c>
+      <c r="X45" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>25</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="1" t="n">
+        <v>11.8749813079834</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>0.2968745326995849</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>0.2169766426086426</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>0.029453125</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>0.0147265625</v>
+      </c>
+      <c r="U46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2" t="n">
+        <v>251.2059421539307</v>
+      </c>
+      <c r="W46" s="3" t="n">
+        <v>34336</v>
+      </c>
+      <c r="X46" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/[3080ti]result.xlsx
+++ b/[3080ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X531"/>
+  <dimension ref="A1:X532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40829,6 +40829,82 @@
         <v>38280</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>2</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+      <c r="C532" t="n">
+        <v>2</v>
+      </c>
+      <c r="D532" t="n">
+        <v>10</v>
+      </c>
+      <c r="E532" t="n">
+        <v>10</v>
+      </c>
+      <c r="F532" t="n">
+        <v>3</v>
+      </c>
+      <c r="G532" t="n">
+        <v>50</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0</v>
+      </c>
+      <c r="J532" t="b">
+        <v>0</v>
+      </c>
+      <c r="K532" t="n">
+        <v>32</v>
+      </c>
+      <c r="L532" t="n">
+        <v>2</v>
+      </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N532" t="n">
+        <v>27</v>
+      </c>
+      <c r="O532" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P532" s="1" t="n">
+        <v>3.806878478438766</v>
+      </c>
+      <c r="Q532" s="1" t="n">
+        <v>0.1027857189178467</v>
+      </c>
+      <c r="R532" s="1" t="n">
+        <v>0.02039313316345215</v>
+      </c>
+      <c r="S532" s="1" t="n">
+        <v>0.0269609375</v>
+      </c>
+      <c r="T532" s="1" t="n">
+        <v>0.01348046875</v>
+      </c>
+      <c r="U532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V532" s="2" t="n">
+        <v>225.3498406410217</v>
+      </c>
+      <c r="W532" s="3" t="n">
+        <v>26564</v>
+      </c>
+      <c r="X532" s="3" t="n">
+        <v>6264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/[3080ti]result.xlsx
+++ b/[3080ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X532"/>
+  <dimension ref="A1:X533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40905,6 +40905,82 @@
         <v>6264</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>2</v>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+      <c r="C533" t="n">
+        <v>2</v>
+      </c>
+      <c r="D533" t="n">
+        <v>10</v>
+      </c>
+      <c r="E533" t="n">
+        <v>10</v>
+      </c>
+      <c r="F533" t="n">
+        <v>3</v>
+      </c>
+      <c r="G533" t="n">
+        <v>50</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0</v>
+      </c>
+      <c r="J533" t="b">
+        <v>0</v>
+      </c>
+      <c r="K533" t="n">
+        <v>256</v>
+      </c>
+      <c r="L533" t="n">
+        <v>2</v>
+      </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N533" t="n">
+        <v>113</v>
+      </c>
+      <c r="O533" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P533" s="1" t="n">
+        <v>6.124395134174717</v>
+      </c>
+      <c r="Q533" s="1" t="n">
+        <v>0.6920566501617431</v>
+      </c>
+      <c r="R533" s="1" t="n">
+        <v>0.3993239402770996</v>
+      </c>
+      <c r="S533" s="1" t="n">
+        <v>0.08994531249999987</v>
+      </c>
+      <c r="T533" s="1" t="n">
+        <v>0.04497265624999994</v>
+      </c>
+      <c r="U533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V533" s="2" t="n">
+        <v>1006.114048719406</v>
+      </c>
+      <c r="W533" s="3" t="n">
+        <v>124560.8</v>
+      </c>
+      <c r="X533" s="3" t="n">
+        <v>26216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/[3080ti]result.xlsx
+++ b/[3080ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA212"/>
+  <dimension ref="A1:AA282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18499,6 +18499,5956 @@
         <v>696</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E213" t="n">
+        <v>10</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3</v>
+      </c>
+      <c r="G213" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>100</v>
+      </c>
+      <c r="K213" t="n">
+        <v>200</v>
+      </c>
+      <c r="L213" t="b">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>16</v>
+      </c>
+      <c r="N213" t="n">
+        <v>128</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q213" s="1" t="n">
+        <v>0.5196034145355225</v>
+      </c>
+      <c r="R213" s="1" t="n">
+        <v>273.8178679148356</v>
+      </c>
+      <c r="S213" s="1" t="n">
+        <v>34.6402276357015</v>
+      </c>
+      <c r="T213" s="1" t="n">
+        <v>0.5196034145355225</v>
+      </c>
+      <c r="U213" s="1" t="n">
+        <v>0.0003168582916259766</v>
+      </c>
+      <c r="V213" s="1" t="n">
+        <v>0.160859375</v>
+      </c>
+      <c r="W213" s="1" t="n">
+        <v>0.08042968749999999</v>
+      </c>
+      <c r="X213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="2" t="n">
+        <v>135.922180891037</v>
+      </c>
+      <c r="Z213" s="3" t="n">
+        <v>15567.2</v>
+      </c>
+      <c r="AA213" s="3" t="n">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E214" t="n">
+        <v>10</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3</v>
+      </c>
+      <c r="G214" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>100</v>
+      </c>
+      <c r="K214" t="n">
+        <v>200</v>
+      </c>
+      <c r="L214" t="b">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>16</v>
+      </c>
+      <c r="N214" t="n">
+        <v>128</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q214" s="1" t="n">
+        <v>0.5182377147674561</v>
+      </c>
+      <c r="R214" s="1" t="n">
+        <v>264.9104577302933</v>
+      </c>
+      <c r="S214" s="1" t="n">
+        <v>32.389857172966</v>
+      </c>
+      <c r="T214" s="1" t="n">
+        <v>0.5182377147674561</v>
+      </c>
+      <c r="U214" s="1" t="n">
+        <v>0.0002965927124023438</v>
+      </c>
+      <c r="V214" s="1" t="n">
+        <v>0.156328125</v>
+      </c>
+      <c r="W214" s="1" t="n">
+        <v>0.07816406249999999</v>
+      </c>
+      <c r="X214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y214" s="2" t="n">
+        <v>147.669634103775</v>
+      </c>
+      <c r="Z214" s="3" t="n">
+        <v>17191.2</v>
+      </c>
+      <c r="AA214" s="3" t="n">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E215" t="n">
+        <v>10</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3</v>
+      </c>
+      <c r="G215" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>100</v>
+      </c>
+      <c r="K215" t="n">
+        <v>200</v>
+      </c>
+      <c r="L215" t="b">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>16</v>
+      </c>
+      <c r="N215" t="n">
+        <v>128</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q215" s="1" t="n">
+        <v>0.5123142719268798</v>
+      </c>
+      <c r="R215" s="1" t="n">
+        <v>266.1477152506511</v>
+      </c>
+      <c r="S215" s="1" t="n">
+        <v>28.46190399593777</v>
+      </c>
+      <c r="T215" s="1" t="n">
+        <v>0.5123142719268798</v>
+      </c>
+      <c r="U215" s="1" t="n">
+        <v>0.0003526210784912109</v>
+      </c>
+      <c r="V215" s="1" t="n">
+        <v>0.1359375</v>
+      </c>
+      <c r="W215" s="1" t="n">
+        <v>0.06796874999999998</v>
+      </c>
+      <c r="X215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y215" s="2" t="n">
+        <v>160.3679873943329</v>
+      </c>
+      <c r="Z215" s="3" t="n">
+        <v>18096</v>
+      </c>
+      <c r="AA215" s="3" t="n">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E216" t="n">
+        <v>10</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3</v>
+      </c>
+      <c r="G216" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>100</v>
+      </c>
+      <c r="K216" t="n">
+        <v>200</v>
+      </c>
+      <c r="L216" t="b">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>16</v>
+      </c>
+      <c r="N216" t="n">
+        <v>128</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q216" s="1" t="n">
+        <v>0.5289898586273195</v>
+      </c>
+      <c r="R216" s="1" t="n">
+        <v>272.3660525153666</v>
+      </c>
+      <c r="S216" s="1" t="n">
+        <v>31.11705050748938</v>
+      </c>
+      <c r="T216" s="1" t="n">
+        <v>0.5289898586273195</v>
+      </c>
+      <c r="U216" s="1" t="n">
+        <v>0.0003287792205810547</v>
+      </c>
+      <c r="V216" s="1" t="n">
+        <v>0.14953125</v>
+      </c>
+      <c r="W216" s="1" t="n">
+        <v>0.074765625</v>
+      </c>
+      <c r="X216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y216" s="2" t="n">
+        <v>155.9111213684082</v>
+      </c>
+      <c r="Z216" s="3" t="n">
+        <v>18096</v>
+      </c>
+      <c r="AA216" s="3" t="n">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E217" t="n">
+        <v>10</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3</v>
+      </c>
+      <c r="G217" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>100</v>
+      </c>
+      <c r="K217" t="n">
+        <v>200</v>
+      </c>
+      <c r="L217" t="b">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>16</v>
+      </c>
+      <c r="N217" t="n">
+        <v>128</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q217" s="1" t="n">
+        <v>0.523627758026123</v>
+      </c>
+      <c r="R217" s="1" t="n">
+        <v>268.1489238739013</v>
+      </c>
+      <c r="S217" s="1" t="n">
+        <v>34.90851720174153</v>
+      </c>
+      <c r="T217" s="1" t="n">
+        <v>0.523627758026123</v>
+      </c>
+      <c r="U217" s="1" t="n">
+        <v>0.0003194808959960938</v>
+      </c>
+      <c r="V217" s="1" t="n">
+        <v>0.169921875</v>
+      </c>
+      <c r="W217" s="1" t="n">
+        <v>0.08496093749999999</v>
+      </c>
+      <c r="X217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y217" s="2" t="n">
+        <v>142.5094172954559</v>
+      </c>
+      <c r="Z217" s="3" t="n">
+        <v>17052</v>
+      </c>
+      <c r="AA217" s="3" t="n">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E218" t="n">
+        <v>10</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3</v>
+      </c>
+      <c r="G218" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>100</v>
+      </c>
+      <c r="K218" t="n">
+        <v>200</v>
+      </c>
+      <c r="L218" t="b">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>16</v>
+      </c>
+      <c r="N218" t="n">
+        <v>128</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q218" s="1" t="n">
+        <v>0.5161106872558593</v>
+      </c>
+      <c r="R218" s="1" t="n">
+        <v>277.4792873859405</v>
+      </c>
+      <c r="S218" s="1" t="n">
+        <v>32.2569179534912</v>
+      </c>
+      <c r="T218" s="1" t="n">
+        <v>0.5161106872558593</v>
+      </c>
+      <c r="U218" s="1" t="n">
+        <v>0.0003376007080078125</v>
+      </c>
+      <c r="V218" s="1" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="W218" s="1" t="n">
+        <v>0.0725</v>
+      </c>
+      <c r="X218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y218" s="2" t="n">
+        <v>140.32963347435</v>
+      </c>
+      <c r="Z218" s="3" t="n">
+        <v>15590.4</v>
+      </c>
+      <c r="AA218" s="3" t="n">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E219" t="n">
+        <v>10</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3</v>
+      </c>
+      <c r="G219" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>100</v>
+      </c>
+      <c r="K219" t="n">
+        <v>200</v>
+      </c>
+      <c r="L219" t="b">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>16</v>
+      </c>
+      <c r="N219" t="n">
+        <v>128</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q219" s="1" t="n">
+        <v>0.5039850711822509</v>
+      </c>
+      <c r="R219" s="1" t="n">
+        <v>260.4583320617676</v>
+      </c>
+      <c r="S219" s="1" t="n">
+        <v>33.59900474548339</v>
+      </c>
+      <c r="T219" s="1" t="n">
+        <v>0.5039850711822509</v>
+      </c>
+      <c r="U219" s="1" t="n">
+        <v>0.0002801418304443359</v>
+      </c>
+      <c r="V219" s="1" t="n">
+        <v>0.15859375</v>
+      </c>
+      <c r="W219" s="1" t="n">
+        <v>0.07929687499999999</v>
+      </c>
+      <c r="X219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y219" s="2" t="n">
+        <v>142.2733314037323</v>
+      </c>
+      <c r="Z219" s="3" t="n">
+        <v>16936</v>
+      </c>
+      <c r="AA219" s="3" t="n">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E220" t="n">
+        <v>10</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3</v>
+      </c>
+      <c r="G220" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>100</v>
+      </c>
+      <c r="K220" t="n">
+        <v>200</v>
+      </c>
+      <c r="L220" t="b">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>16</v>
+      </c>
+      <c r="N220" t="n">
+        <v>128</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q220" s="1" t="n">
+        <v>0.5069353389739989</v>
+      </c>
+      <c r="R220" s="1" t="n">
+        <v>269.1273471287318</v>
+      </c>
+      <c r="S220" s="1" t="n">
+        <v>36.20966706957135</v>
+      </c>
+      <c r="T220" s="1" t="n">
+        <v>0.5069353389739989</v>
+      </c>
+      <c r="U220" s="1" t="n">
+        <v>0.0002641677856445312</v>
+      </c>
+      <c r="V220" s="1" t="n">
+        <v>0.16765625</v>
+      </c>
+      <c r="W220" s="1" t="n">
+        <v>0.08382812499999999</v>
+      </c>
+      <c r="X220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y220" s="2" t="n">
+        <v>136.2810885906219</v>
+      </c>
+      <c r="Z220" s="3" t="n">
+        <v>16657.6</v>
+      </c>
+      <c r="AA220" s="3" t="n">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E221" t="n">
+        <v>10</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3</v>
+      </c>
+      <c r="G221" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>100</v>
+      </c>
+      <c r="K221" t="n">
+        <v>200</v>
+      </c>
+      <c r="L221" t="b">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>16</v>
+      </c>
+      <c r="N221" t="n">
+        <v>128</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q221" s="1" t="n">
+        <v>0.5177181053161621</v>
+      </c>
+      <c r="R221" s="1" t="n">
+        <v>274.1595447063446</v>
+      </c>
+      <c r="S221" s="1" t="n">
+        <v>32.35738158226013</v>
+      </c>
+      <c r="T221" s="1" t="n">
+        <v>0.5177181053161621</v>
+      </c>
+      <c r="U221" s="1" t="n">
+        <v>0.0003087520599365234</v>
+      </c>
+      <c r="V221" s="1" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="W221" s="1" t="n">
+        <v>0.0725</v>
+      </c>
+      <c r="X221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y221" s="2" t="n">
+        <v>143.2469551563263</v>
+      </c>
+      <c r="Z221" s="3" t="n">
+        <v>16332.8</v>
+      </c>
+      <c r="AA221" s="3" t="n">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E222" t="n">
+        <v>10</v>
+      </c>
+      <c r="F222" t="n">
+        <v>3</v>
+      </c>
+      <c r="G222" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>100</v>
+      </c>
+      <c r="K222" t="n">
+        <v>200</v>
+      </c>
+      <c r="L222" t="b">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>16</v>
+      </c>
+      <c r="N222" t="n">
+        <v>128</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q222" s="1" t="n">
+        <v>0.5194363403320311</v>
+      </c>
+      <c r="R222" s="1" t="n">
+        <v>278.9764830271403</v>
+      </c>
+      <c r="S222" s="1" t="n">
+        <v>34.62908935546874</v>
+      </c>
+      <c r="T222" s="1" t="n">
+        <v>0.5194363403320311</v>
+      </c>
+      <c r="U222" s="1" t="n">
+        <v>0.0003125667572021484</v>
+      </c>
+      <c r="V222" s="1" t="n">
+        <v>0.16765625</v>
+      </c>
+      <c r="W222" s="1" t="n">
+        <v>0.08382812499999998</v>
+      </c>
+      <c r="X222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y222" s="2" t="n">
+        <v>146.0704147815704</v>
+      </c>
+      <c r="Z222" s="3" t="n">
+        <v>17724.8</v>
+      </c>
+      <c r="AA222" s="3" t="n">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E223" t="n">
+        <v>10</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3</v>
+      </c>
+      <c r="G223" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>100</v>
+      </c>
+      <c r="K223" t="n">
+        <v>200</v>
+      </c>
+      <c r="L223" t="b">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>16</v>
+      </c>
+      <c r="N223" t="n">
+        <v>256</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q223" s="1" t="n">
+        <v>0.5113611316680908</v>
+      </c>
+      <c r="R223" s="1" t="n">
+        <v>272.6761355766884</v>
+      </c>
+      <c r="S223" s="1" t="n">
+        <v>39.33547166677621</v>
+      </c>
+      <c r="T223" s="1" t="n">
+        <v>0.5113611316680908</v>
+      </c>
+      <c r="U223" s="1" t="n">
+        <v>0.0002520084381103516</v>
+      </c>
+      <c r="V223" s="1" t="n">
+        <v>0.142734375</v>
+      </c>
+      <c r="W223" s="1" t="n">
+        <v>0.07136718749999998</v>
+      </c>
+      <c r="X223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y223" s="2" t="n">
+        <v>124.1187717914581</v>
+      </c>
+      <c r="Z223" s="3" t="n">
+        <v>14732</v>
+      </c>
+      <c r="AA223" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E224" t="n">
+        <v>10</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3</v>
+      </c>
+      <c r="G224" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>100</v>
+      </c>
+      <c r="K224" t="n">
+        <v>200</v>
+      </c>
+      <c r="L224" t="b">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>16</v>
+      </c>
+      <c r="N224" t="n">
+        <v>256</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q224" s="1" t="n">
+        <v>0.5315759658813476</v>
+      </c>
+      <c r="R224" s="1" t="n">
+        <v>282.0456981658936</v>
+      </c>
+      <c r="S224" s="1" t="n">
+        <v>37.96971184866769</v>
+      </c>
+      <c r="T224" s="1" t="n">
+        <v>0.5315759658813476</v>
+      </c>
+      <c r="U224" s="1" t="n">
+        <v>0.0002818107604980469</v>
+      </c>
+      <c r="V224" s="1" t="n">
+        <v>0.147265625</v>
+      </c>
+      <c r="W224" s="1" t="n">
+        <v>0.07363281249999999</v>
+      </c>
+      <c r="X224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y224" s="2" t="n">
+        <v>133.7279922962189</v>
+      </c>
+      <c r="Z224" s="3" t="n">
+        <v>15799.2</v>
+      </c>
+      <c r="AA224" s="3" t="n">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E225" t="n">
+        <v>10</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3</v>
+      </c>
+      <c r="G225" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>100</v>
+      </c>
+      <c r="K225" t="n">
+        <v>200</v>
+      </c>
+      <c r="L225" t="b">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>16</v>
+      </c>
+      <c r="N225" t="n">
+        <v>256</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q225" s="1" t="n">
+        <v>0.5354115295410156</v>
+      </c>
+      <c r="R225" s="1" t="n">
+        <v>289.2056929270426</v>
+      </c>
+      <c r="S225" s="1" t="n">
+        <v>35.69410196940104</v>
+      </c>
+      <c r="T225" s="1" t="n">
+        <v>0.5354115295410156</v>
+      </c>
+      <c r="U225" s="1" t="n">
+        <v>0.0002963542938232422</v>
+      </c>
+      <c r="V225" s="1" t="n">
+        <v>0.133671875</v>
+      </c>
+      <c r="W225" s="1" t="n">
+        <v>0.06683593749999998</v>
+      </c>
+      <c r="X225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y225" s="2" t="n">
+        <v>145.2012486457825</v>
+      </c>
+      <c r="Z225" s="3" t="n">
+        <v>17376.8</v>
+      </c>
+      <c r="AA225" s="3" t="n">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E226" t="n">
+        <v>10</v>
+      </c>
+      <c r="F226" t="n">
+        <v>3</v>
+      </c>
+      <c r="G226" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>100</v>
+      </c>
+      <c r="K226" t="n">
+        <v>200</v>
+      </c>
+      <c r="L226" t="b">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>16</v>
+      </c>
+      <c r="N226" t="n">
+        <v>256</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q226" s="1" t="n">
+        <v>0.5022145843505859</v>
+      </c>
+      <c r="R226" s="1" t="n">
+        <v>257.9510286876133</v>
+      </c>
+      <c r="S226" s="1" t="n">
+        <v>35.87247031075614</v>
+      </c>
+      <c r="T226" s="1" t="n">
+        <v>0.5022145843505859</v>
+      </c>
+      <c r="U226" s="1" t="n">
+        <v>0.00026702880859375</v>
+      </c>
+      <c r="V226" s="1" t="n">
+        <v>0.13140625</v>
+      </c>
+      <c r="W226" s="1" t="n">
+        <v>0.06570312499999999</v>
+      </c>
+      <c r="X226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y226" s="2" t="n">
+        <v>132.7854180335999</v>
+      </c>
+      <c r="Z226" s="3" t="n">
+        <v>15636.8</v>
+      </c>
+      <c r="AA226" s="3" t="n">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E227" t="n">
+        <v>10</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3</v>
+      </c>
+      <c r="G227" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>100</v>
+      </c>
+      <c r="K227" t="n">
+        <v>200</v>
+      </c>
+      <c r="L227" t="b">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>16</v>
+      </c>
+      <c r="N227" t="n">
+        <v>256</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q227" s="1" t="n">
+        <v>0.5347831630706787</v>
+      </c>
+      <c r="R227" s="1" t="n">
+        <v>280.1847499608994</v>
+      </c>
+      <c r="S227" s="1" t="n">
+        <v>33.42394769191742</v>
+      </c>
+      <c r="T227" s="1" t="n">
+        <v>0.5347831630706787</v>
+      </c>
+      <c r="U227" s="1" t="n">
+        <v>0.0003092288970947266</v>
+      </c>
+      <c r="V227" s="1" t="n">
+        <v>0.1178125</v>
+      </c>
+      <c r="W227" s="1" t="n">
+        <v>0.05890624999999999</v>
+      </c>
+      <c r="X227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y227" s="2" t="n">
+        <v>140.2714614868164</v>
+      </c>
+      <c r="Z227" s="3" t="n">
+        <v>15312</v>
+      </c>
+      <c r="AA227" s="3" t="n">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E228" t="n">
+        <v>10</v>
+      </c>
+      <c r="F228" t="n">
+        <v>3</v>
+      </c>
+      <c r="G228" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>100</v>
+      </c>
+      <c r="K228" t="n">
+        <v>200</v>
+      </c>
+      <c r="L228" t="b">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>16</v>
+      </c>
+      <c r="N228" t="n">
+        <v>256</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q228" s="1" t="n">
+        <v>0.5075981521606445</v>
+      </c>
+      <c r="R228" s="1" t="n">
+        <v>279.5764402242807</v>
+      </c>
+      <c r="S228" s="1" t="n">
+        <v>39.04601170466496</v>
+      </c>
+      <c r="T228" s="1" t="n">
+        <v>0.5075981521606445</v>
+      </c>
+      <c r="U228" s="1" t="n">
+        <v>0.0002689361572265625</v>
+      </c>
+      <c r="V228" s="1" t="n">
+        <v>0.14046875</v>
+      </c>
+      <c r="W228" s="1" t="n">
+        <v>0.07023437499999999</v>
+      </c>
+      <c r="X228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y228" s="2" t="n">
+        <v>121.5542855262756</v>
+      </c>
+      <c r="Z228" s="3" t="n">
+        <v>14105.6</v>
+      </c>
+      <c r="AA228" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E229" t="n">
+        <v>10</v>
+      </c>
+      <c r="F229" t="n">
+        <v>3</v>
+      </c>
+      <c r="G229" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>100</v>
+      </c>
+      <c r="K229" t="n">
+        <v>200</v>
+      </c>
+      <c r="L229" t="b">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>16</v>
+      </c>
+      <c r="N229" t="n">
+        <v>256</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q229" s="1" t="n">
+        <v>0.5150848960876464</v>
+      </c>
+      <c r="R229" s="1" t="n">
+        <v>275.6107725415911</v>
+      </c>
+      <c r="S229" s="1" t="n">
+        <v>36.79177829197474</v>
+      </c>
+      <c r="T229" s="1" t="n">
+        <v>0.5150848960876464</v>
+      </c>
+      <c r="U229" s="1" t="n">
+        <v>0.0002782344818115234</v>
+      </c>
+      <c r="V229" s="1" t="n">
+        <v>0.13140625</v>
+      </c>
+      <c r="W229" s="1" t="n">
+        <v>0.06570312499999999</v>
+      </c>
+      <c r="X229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y229" s="2" t="n">
+        <v>126.6233026981354</v>
+      </c>
+      <c r="Z229" s="3" t="n">
+        <v>14337.6</v>
+      </c>
+      <c r="AA229" s="3" t="n">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E230" t="n">
+        <v>10</v>
+      </c>
+      <c r="F230" t="n">
+        <v>3</v>
+      </c>
+      <c r="G230" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>100</v>
+      </c>
+      <c r="K230" t="n">
+        <v>200</v>
+      </c>
+      <c r="L230" t="b">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>16</v>
+      </c>
+      <c r="N230" t="n">
+        <v>256</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q230" s="1" t="n">
+        <v>0.5256304836273195</v>
+      </c>
+      <c r="R230" s="1" t="n">
+        <v>279.7969947542463</v>
+      </c>
+      <c r="S230" s="1" t="n">
+        <v>37.54503454480853</v>
+      </c>
+      <c r="T230" s="1" t="n">
+        <v>0.5256304836273195</v>
+      </c>
+      <c r="U230" s="1" t="n">
+        <v>0.0002782344818115234</v>
+      </c>
+      <c r="V230" s="1" t="n">
+        <v>0.142734375</v>
+      </c>
+      <c r="W230" s="1" t="n">
+        <v>0.0713671875</v>
+      </c>
+      <c r="X230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y230" s="2" t="n">
+        <v>130.5517311096191</v>
+      </c>
+      <c r="Z230" s="3" t="n">
+        <v>15103.2</v>
+      </c>
+      <c r="AA230" s="3" t="n">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E231" t="n">
+        <v>10</v>
+      </c>
+      <c r="F231" t="n">
+        <v>3</v>
+      </c>
+      <c r="G231" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>100</v>
+      </c>
+      <c r="K231" t="n">
+        <v>200</v>
+      </c>
+      <c r="L231" t="b">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>16</v>
+      </c>
+      <c r="N231" t="n">
+        <v>256</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q231" s="1" t="n">
+        <v>0.5189905929565429</v>
+      </c>
+      <c r="R231" s="1" t="n">
+        <v>271.867472966512</v>
+      </c>
+      <c r="S231" s="1" t="n">
+        <v>34.59937286376953</v>
+      </c>
+      <c r="T231" s="1" t="n">
+        <v>0.5189905929565429</v>
+      </c>
+      <c r="U231" s="1" t="n">
+        <v>0.0002729892730712891</v>
+      </c>
+      <c r="V231" s="1" t="n">
+        <v>0.12234375</v>
+      </c>
+      <c r="W231" s="1" t="n">
+        <v>0.06117187499999999</v>
+      </c>
+      <c r="X231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y231" s="2" t="n">
+        <v>138.4217796325684</v>
+      </c>
+      <c r="Z231" s="3" t="n">
+        <v>15868.8</v>
+      </c>
+      <c r="AA231" s="3" t="n">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E232" t="n">
+        <v>10</v>
+      </c>
+      <c r="F232" t="n">
+        <v>3</v>
+      </c>
+      <c r="G232" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>100</v>
+      </c>
+      <c r="K232" t="n">
+        <v>200</v>
+      </c>
+      <c r="L232" t="b">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>16</v>
+      </c>
+      <c r="N232" t="n">
+        <v>256</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q232" s="1" t="n">
+        <v>0.5208547019958496</v>
+      </c>
+      <c r="R232" s="1" t="n">
+        <v>282.0209414618356</v>
+      </c>
+      <c r="S232" s="1" t="n">
+        <v>37.20390728541783</v>
+      </c>
+      <c r="T232" s="1" t="n">
+        <v>0.5208547019958496</v>
+      </c>
+      <c r="U232" s="1" t="n">
+        <v>0.0002772808074951172</v>
+      </c>
+      <c r="V232" s="1" t="n">
+        <v>0.14046875</v>
+      </c>
+      <c r="W232" s="1" t="n">
+        <v>0.07023437499999999</v>
+      </c>
+      <c r="X232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y232" s="2" t="n">
+        <v>128.0130925178528</v>
+      </c>
+      <c r="Z232" s="3" t="n">
+        <v>14430.4</v>
+      </c>
+      <c r="AA232" s="3" t="n">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E233" t="n">
+        <v>10</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3</v>
+      </c>
+      <c r="G233" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>100</v>
+      </c>
+      <c r="K233" t="n">
+        <v>200</v>
+      </c>
+      <c r="L233" t="b">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>16</v>
+      </c>
+      <c r="N233" t="n">
+        <v>512</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q233" s="1" t="n">
+        <v>0.5268780136108399</v>
+      </c>
+      <c r="R233" s="1" t="n">
+        <v>287.18393239108</v>
+      </c>
+      <c r="S233" s="1" t="n">
+        <v>47.89800123734908</v>
+      </c>
+      <c r="T233" s="1" t="n">
+        <v>0.5268780136108399</v>
+      </c>
+      <c r="U233" s="1" t="n">
+        <v>0.0002195835113525391</v>
+      </c>
+      <c r="V233" s="1" t="n">
+        <v>0.129140625</v>
+      </c>
+      <c r="W233" s="1" t="n">
+        <v>0.06457031249999999</v>
+      </c>
+      <c r="X233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y233" s="2" t="n">
+        <v>106.2626004219055</v>
+      </c>
+      <c r="Z233" s="3" t="n">
+        <v>12551.2</v>
+      </c>
+      <c r="AA233" s="3" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E234" t="n">
+        <v>10</v>
+      </c>
+      <c r="F234" t="n">
+        <v>3</v>
+      </c>
+      <c r="G234" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>100</v>
+      </c>
+      <c r="K234" t="n">
+        <v>200</v>
+      </c>
+      <c r="L234" t="b">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>16</v>
+      </c>
+      <c r="N234" t="n">
+        <v>512</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q234" s="1" t="n">
+        <v>0.5176928234100342</v>
+      </c>
+      <c r="R234" s="1" t="n">
+        <v>282.6092468608509</v>
+      </c>
+      <c r="S234" s="1" t="n">
+        <v>47.06298394636674</v>
+      </c>
+      <c r="T234" s="1" t="n">
+        <v>0.5176928234100342</v>
+      </c>
+      <c r="U234" s="1" t="n">
+        <v>0.0002095699310302734</v>
+      </c>
+      <c r="V234" s="1" t="n">
+        <v>0.115546875</v>
+      </c>
+      <c r="W234" s="1" t="n">
+        <v>0.0577734375</v>
+      </c>
+      <c r="X234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y234" s="2" t="n">
+        <v>101.7924861907959</v>
+      </c>
+      <c r="Z234" s="3" t="n">
+        <v>11391.2</v>
+      </c>
+      <c r="AA234" s="3" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E235" t="n">
+        <v>10</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3</v>
+      </c>
+      <c r="G235" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>100</v>
+      </c>
+      <c r="K235" t="n">
+        <v>200</v>
+      </c>
+      <c r="L235" t="b">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>16</v>
+      </c>
+      <c r="N235" t="n">
+        <v>512</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q235" s="1" t="n">
+        <v>0.540108871459961</v>
+      </c>
+      <c r="R235" s="1" t="n">
+        <v>292.8614807128906</v>
+      </c>
+      <c r="S235" s="1" t="n">
+        <v>49.10080649636009</v>
+      </c>
+      <c r="T235" s="1" t="n">
+        <v>0.540108871459961</v>
+      </c>
+      <c r="U235" s="1" t="n">
+        <v>0.0002126693725585938</v>
+      </c>
+      <c r="V235" s="1" t="n">
+        <v>0.1359375</v>
+      </c>
+      <c r="W235" s="1" t="n">
+        <v>0.06796874999999999</v>
+      </c>
+      <c r="X235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y235" s="2" t="n">
+        <v>114.686722278595</v>
+      </c>
+      <c r="Z235" s="3" t="n">
+        <v>14152</v>
+      </c>
+      <c r="AA235" s="3" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E236" t="n">
+        <v>10</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3</v>
+      </c>
+      <c r="G236" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>100</v>
+      </c>
+      <c r="K236" t="n">
+        <v>200</v>
+      </c>
+      <c r="L236" t="b">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>16</v>
+      </c>
+      <c r="N236" t="n">
+        <v>512</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q236" s="1" t="n">
+        <v>0.5278679943084718</v>
+      </c>
+      <c r="R236" s="1" t="n">
+        <v>281.7042549451193</v>
+      </c>
+      <c r="S236" s="1" t="n">
+        <v>43.98899952570598</v>
+      </c>
+      <c r="T236" s="1" t="n">
+        <v>0.5278679943084718</v>
+      </c>
+      <c r="U236" s="1" t="n">
+        <v>0.0002324581146240234</v>
+      </c>
+      <c r="V236" s="1" t="n">
+        <v>0.10875</v>
+      </c>
+      <c r="W236" s="1" t="n">
+        <v>0.054375</v>
+      </c>
+      <c r="X236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y236" s="2" t="n">
+        <v>115.1895527839661</v>
+      </c>
+      <c r="Z236" s="3" t="n">
+        <v>13363.2</v>
+      </c>
+      <c r="AA236" s="3" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E237" t="n">
+        <v>10</v>
+      </c>
+      <c r="F237" t="n">
+        <v>3</v>
+      </c>
+      <c r="G237" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>100</v>
+      </c>
+      <c r="K237" t="n">
+        <v>200</v>
+      </c>
+      <c r="L237" t="b">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>16</v>
+      </c>
+      <c r="N237" t="n">
+        <v>512</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q237" s="1" t="n">
+        <v>0.5434495735168456</v>
+      </c>
+      <c r="R237" s="1" t="n">
+        <v>290.4199634898792</v>
+      </c>
+      <c r="S237" s="1" t="n">
+        <v>49.40450668334961</v>
+      </c>
+      <c r="T237" s="1" t="n">
+        <v>0.5434495735168456</v>
+      </c>
+      <c r="U237" s="1" t="n">
+        <v>0.0002081394195556641</v>
+      </c>
+      <c r="V237" s="1" t="n">
+        <v>0.133671875</v>
+      </c>
+      <c r="W237" s="1" t="n">
+        <v>0.0668359375</v>
+      </c>
+      <c r="X237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y237" s="2" t="n">
+        <v>107.3678126335144</v>
+      </c>
+      <c r="Z237" s="3" t="n">
+        <v>12597.6</v>
+      </c>
+      <c r="AA237" s="3" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E238" t="n">
+        <v>10</v>
+      </c>
+      <c r="F238" t="n">
+        <v>3</v>
+      </c>
+      <c r="G238" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>100</v>
+      </c>
+      <c r="K238" t="n">
+        <v>200</v>
+      </c>
+      <c r="L238" t="b">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>16</v>
+      </c>
+      <c r="N238" t="n">
+        <v>512</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q238" s="1" t="n">
+        <v>0.5197246932983398</v>
+      </c>
+      <c r="R238" s="1" t="n">
+        <v>285.8599122365315</v>
+      </c>
+      <c r="S238" s="1" t="n">
+        <v>43.31039110819498</v>
+      </c>
+      <c r="T238" s="1" t="n">
+        <v>0.5197246932983398</v>
+      </c>
+      <c r="U238" s="1" t="n">
+        <v>0.0002663135528564453</v>
+      </c>
+      <c r="V238" s="1" t="n">
+        <v>0.09515624999999998</v>
+      </c>
+      <c r="W238" s="1" t="n">
+        <v>0.04757812499999999</v>
+      </c>
+      <c r="X238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y238" s="2" t="n">
+        <v>106.7054238319397</v>
+      </c>
+      <c r="Z238" s="3" t="n">
+        <v>11553.6</v>
+      </c>
+      <c r="AA238" s="3" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E239" t="n">
+        <v>10</v>
+      </c>
+      <c r="F239" t="n">
+        <v>3</v>
+      </c>
+      <c r="G239" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>100</v>
+      </c>
+      <c r="K239" t="n">
+        <v>200</v>
+      </c>
+      <c r="L239" t="b">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>16</v>
+      </c>
+      <c r="N239" t="n">
+        <v>512</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q239" s="1" t="n">
+        <v>0.5095915031433105</v>
+      </c>
+      <c r="R239" s="1" t="n">
+        <v>276.4597209294637</v>
+      </c>
+      <c r="S239" s="1" t="n">
+        <v>42.46595859527587</v>
+      </c>
+      <c r="T239" s="1" t="n">
+        <v>0.5095915031433105</v>
+      </c>
+      <c r="U239" s="1" t="n">
+        <v>0.0002248287200927734</v>
+      </c>
+      <c r="V239" s="1" t="n">
+        <v>0.10421875</v>
+      </c>
+      <c r="W239" s="1" t="n">
+        <v>0.05210937499999999</v>
+      </c>
+      <c r="X239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y239" s="2" t="n">
+        <v>112.4272191524506</v>
+      </c>
+      <c r="Z239" s="3" t="n">
+        <v>12760</v>
+      </c>
+      <c r="AA239" s="3" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E240" t="n">
+        <v>10</v>
+      </c>
+      <c r="F240" t="n">
+        <v>3</v>
+      </c>
+      <c r="G240" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>100</v>
+      </c>
+      <c r="K240" t="n">
+        <v>200</v>
+      </c>
+      <c r="L240" t="b">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>16</v>
+      </c>
+      <c r="N240" t="n">
+        <v>512</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q240" s="1" t="n">
+        <v>0.5490453147888185</v>
+      </c>
+      <c r="R240" s="1" t="n">
+        <v>300.3211558948864</v>
+      </c>
+      <c r="S240" s="1" t="n">
+        <v>49.91321043534713</v>
+      </c>
+      <c r="T240" s="1" t="n">
+        <v>0.5490453147888185</v>
+      </c>
+      <c r="U240" s="1" t="n">
+        <v>0.0002050399780273438</v>
+      </c>
+      <c r="V240" s="1" t="n">
+        <v>0.14046875</v>
+      </c>
+      <c r="W240" s="1" t="n">
+        <v>0.07023437499999999</v>
+      </c>
+      <c r="X240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y240" s="2" t="n">
+        <v>112.1613042354584</v>
+      </c>
+      <c r="Z240" s="3" t="n">
+        <v>13688</v>
+      </c>
+      <c r="AA240" s="3" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E241" t="n">
+        <v>10</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3</v>
+      </c>
+      <c r="G241" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>100</v>
+      </c>
+      <c r="K241" t="n">
+        <v>200</v>
+      </c>
+      <c r="L241" t="b">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>16</v>
+      </c>
+      <c r="N241" t="n">
+        <v>512</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q241" s="1" t="n">
+        <v>0.50822114944458</v>
+      </c>
+      <c r="R241" s="1" t="n">
+        <v>272.7216668562455</v>
+      </c>
+      <c r="S241" s="1" t="n">
+        <v>46.20192267678</v>
+      </c>
+      <c r="T241" s="1" t="n">
+        <v>0.50822114944458</v>
+      </c>
+      <c r="U241" s="1" t="n">
+        <v>0.0002183914184570312</v>
+      </c>
+      <c r="V241" s="1" t="n">
+        <v>0.11328125</v>
+      </c>
+      <c r="W241" s="1" t="n">
+        <v>0.05664062499999999</v>
+      </c>
+      <c r="X241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y241" s="2" t="n">
+        <v>106.2160220146179</v>
+      </c>
+      <c r="Z241" s="3" t="n">
+        <v>12388.8</v>
+      </c>
+      <c r="AA241" s="3" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E242" t="n">
+        <v>10</v>
+      </c>
+      <c r="F242" t="n">
+        <v>3</v>
+      </c>
+      <c r="G242" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>100</v>
+      </c>
+      <c r="K242" t="n">
+        <v>200</v>
+      </c>
+      <c r="L242" t="b">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>16</v>
+      </c>
+      <c r="N242" t="n">
+        <v>512</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q242" s="1" t="n">
+        <v>0.5171065998077393</v>
+      </c>
+      <c r="R242" s="1" t="n">
+        <v>283.083188533783</v>
+      </c>
+      <c r="S242" s="1" t="n">
+        <v>43.09221665064494</v>
+      </c>
+      <c r="T242" s="1" t="n">
+        <v>0.5171065998077393</v>
+      </c>
+      <c r="U242" s="1" t="n">
+        <v>0.0002295970916748047</v>
+      </c>
+      <c r="V242" s="1" t="n">
+        <v>0.09289062499999998</v>
+      </c>
+      <c r="W242" s="1" t="n">
+        <v>0.04644531249999999</v>
+      </c>
+      <c r="X242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y242" s="2" t="n">
+        <v>106.3142938613892</v>
+      </c>
+      <c r="Z242" s="3" t="n">
+        <v>11530.4</v>
+      </c>
+      <c r="AA242" s="3" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E243" t="n">
+        <v>10</v>
+      </c>
+      <c r="F243" t="n">
+        <v>3</v>
+      </c>
+      <c r="G243" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>100</v>
+      </c>
+      <c r="K243" t="n">
+        <v>200</v>
+      </c>
+      <c r="L243" t="b">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>16</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q243" s="1" t="n">
+        <v>0.547427740097046</v>
+      </c>
+      <c r="R243" s="1" t="n">
+        <v>301.1837938096789</v>
+      </c>
+      <c r="S243" s="1" t="n">
+        <v>60.82530445522733</v>
+      </c>
+      <c r="T243" s="1" t="n">
+        <v>0.547427740097046</v>
+      </c>
+      <c r="U243" s="1" t="n">
+        <v>0.0001881122589111328</v>
+      </c>
+      <c r="V243" s="1" t="n">
+        <v>0.09515625</v>
+      </c>
+      <c r="W243" s="1" t="n">
+        <v>0.047578125</v>
+      </c>
+      <c r="X243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y243" s="2" t="n">
+        <v>92.36505484580994</v>
+      </c>
+      <c r="Z243" s="3" t="n">
+        <v>10996.8</v>
+      </c>
+      <c r="AA243" s="3" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E244" t="n">
+        <v>10</v>
+      </c>
+      <c r="F244" t="n">
+        <v>3</v>
+      </c>
+      <c r="G244" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>100</v>
+      </c>
+      <c r="K244" t="n">
+        <v>200</v>
+      </c>
+      <c r="L244" t="b">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>16</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P244" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q244" s="1" t="n">
+        <v>0.526430320739746</v>
+      </c>
+      <c r="R244" s="1" t="n">
+        <v>292.1104611290826</v>
+      </c>
+      <c r="S244" s="1" t="n">
+        <v>58.49225785997178</v>
+      </c>
+      <c r="T244" s="1" t="n">
+        <v>0.526430320739746</v>
+      </c>
+      <c r="U244" s="1" t="n">
+        <v>0.0001795291900634766</v>
+      </c>
+      <c r="V244" s="1" t="n">
+        <v>0.07929687499999999</v>
+      </c>
+      <c r="W244" s="1" t="n">
+        <v>0.03964843749999999</v>
+      </c>
+      <c r="X244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y244" s="2" t="n">
+        <v>87.68286633491516</v>
+      </c>
+      <c r="Z244" s="3" t="n">
+        <v>9999.200000000001</v>
+      </c>
+      <c r="AA244" s="3" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E245" t="n">
+        <v>10</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3</v>
+      </c>
+      <c r="G245" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>100</v>
+      </c>
+      <c r="K245" t="n">
+        <v>200</v>
+      </c>
+      <c r="L245" t="b">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>16</v>
+      </c>
+      <c r="N245" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q245" s="1" t="n">
+        <v>0.5285143756866455</v>
+      </c>
+      <c r="R245" s="1" t="n">
+        <v>300.0998931460911</v>
+      </c>
+      <c r="S245" s="1" t="n">
+        <v>58.72381952073839</v>
+      </c>
+      <c r="T245" s="1" t="n">
+        <v>0.5285143756866455</v>
+      </c>
+      <c r="U245" s="1" t="n">
+        <v>0.0001676082611083984</v>
+      </c>
+      <c r="V245" s="1" t="n">
+        <v>0.08382812499999999</v>
+      </c>
+      <c r="W245" s="1" t="n">
+        <v>0.04191406249999999</v>
+      </c>
+      <c r="X245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y245" s="2" t="n">
+        <v>85.83037948608398</v>
+      </c>
+      <c r="Z245" s="3" t="n">
+        <v>9628</v>
+      </c>
+      <c r="AA245" s="3" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E246" t="n">
+        <v>10</v>
+      </c>
+      <c r="F246" t="n">
+        <v>3</v>
+      </c>
+      <c r="G246" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>100</v>
+      </c>
+      <c r="K246" t="n">
+        <v>200</v>
+      </c>
+      <c r="L246" t="b">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>16</v>
+      </c>
+      <c r="N246" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P246" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q246" s="1" t="n">
+        <v>0.5005575180053712</v>
+      </c>
+      <c r="R246" s="1" t="n">
+        <v>284.9673758612739</v>
+      </c>
+      <c r="S246" s="1" t="n">
+        <v>55.6175020005968</v>
+      </c>
+      <c r="T246" s="1" t="n">
+        <v>0.5005575180053712</v>
+      </c>
+      <c r="U246" s="1" t="n">
+        <v>0.0002040863037109375</v>
+      </c>
+      <c r="V246" s="1" t="n">
+        <v>0.06796874999999999</v>
+      </c>
+      <c r="W246" s="1" t="n">
+        <v>0.033984375</v>
+      </c>
+      <c r="X246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y246" s="2" t="n">
+        <v>81.31091618537903</v>
+      </c>
+      <c r="Z246" s="3" t="n">
+        <v>8630.4</v>
+      </c>
+      <c r="AA246" s="3" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E247" t="n">
+        <v>10</v>
+      </c>
+      <c r="F247" t="n">
+        <v>3</v>
+      </c>
+      <c r="G247" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>100</v>
+      </c>
+      <c r="K247" t="n">
+        <v>200</v>
+      </c>
+      <c r="L247" t="b">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>16</v>
+      </c>
+      <c r="N247" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P247" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q247" s="1" t="n">
+        <v>0.5199429321289063</v>
+      </c>
+      <c r="R247" s="1" t="n">
+        <v>291.2398762173123</v>
+      </c>
+      <c r="S247" s="1" t="n">
+        <v>57.77143690321181</v>
+      </c>
+      <c r="T247" s="1" t="n">
+        <v>0.5199429321289063</v>
+      </c>
+      <c r="U247" s="1" t="n">
+        <v>0.0001726150512695312</v>
+      </c>
+      <c r="V247" s="1" t="n">
+        <v>0.07703125</v>
+      </c>
+      <c r="W247" s="1" t="n">
+        <v>0.038515625</v>
+      </c>
+      <c r="X247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y247" s="2" t="n">
+        <v>81.37331700325012</v>
+      </c>
+      <c r="Z247" s="3" t="n">
+        <v>8723.200000000001</v>
+      </c>
+      <c r="AA247" s="3" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E248" t="n">
+        <v>10</v>
+      </c>
+      <c r="F248" t="n">
+        <v>3</v>
+      </c>
+      <c r="G248" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>100</v>
+      </c>
+      <c r="K248" t="n">
+        <v>200</v>
+      </c>
+      <c r="L248" t="b">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>16</v>
+      </c>
+      <c r="N248" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q248" s="1" t="n">
+        <v>0.5017900943756103</v>
+      </c>
+      <c r="R248" s="1" t="n">
+        <v>277.9305803775787</v>
+      </c>
+      <c r="S248" s="1" t="n">
+        <v>62.72376179695129</v>
+      </c>
+      <c r="T248" s="1" t="n">
+        <v>0.5017900943756103</v>
+      </c>
+      <c r="U248" s="1" t="n">
+        <v>0.0001587867736816406</v>
+      </c>
+      <c r="V248" s="1" t="n">
+        <v>0.09062499999999998</v>
+      </c>
+      <c r="W248" s="1" t="n">
+        <v>0.04531249999999999</v>
+      </c>
+      <c r="X248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y248" s="2" t="n">
+        <v>78.52576184272766</v>
+      </c>
+      <c r="Z248" s="3" t="n">
+        <v>9094.4</v>
+      </c>
+      <c r="AA248" s="3" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E249" t="n">
+        <v>10</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3</v>
+      </c>
+      <c r="G249" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>100</v>
+      </c>
+      <c r="K249" t="n">
+        <v>200</v>
+      </c>
+      <c r="L249" t="b">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>16</v>
+      </c>
+      <c r="N249" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P249" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q249" s="1" t="n">
+        <v>0.5129119682312012</v>
+      </c>
+      <c r="R249" s="1" t="n">
+        <v>288.7365860409207</v>
+      </c>
+      <c r="S249" s="1" t="n">
+        <v>56.99021869235569</v>
+      </c>
+      <c r="T249" s="1" t="n">
+        <v>0.5129119682312012</v>
+      </c>
+      <c r="U249" s="1" t="n">
+        <v>0.0001673698425292969</v>
+      </c>
+      <c r="V249" s="1" t="n">
+        <v>0.07703125</v>
+      </c>
+      <c r="W249" s="1" t="n">
+        <v>0.038515625</v>
+      </c>
+      <c r="X249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y249" s="2" t="n">
+        <v>85.63223648071289</v>
+      </c>
+      <c r="Z249" s="3" t="n">
+        <v>9558.4</v>
+      </c>
+      <c r="AA249" s="3" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E250" t="n">
+        <v>10</v>
+      </c>
+      <c r="F250" t="n">
+        <v>3</v>
+      </c>
+      <c r="G250" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>100</v>
+      </c>
+      <c r="K250" t="n">
+        <v>200</v>
+      </c>
+      <c r="L250" t="b">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>16</v>
+      </c>
+      <c r="N250" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q250" s="1" t="n">
+        <v>0.5351035499572755</v>
+      </c>
+      <c r="R250" s="1" t="n">
+        <v>301.0112815433079</v>
+      </c>
+      <c r="S250" s="1" t="n">
+        <v>59.45594999525283</v>
+      </c>
+      <c r="T250" s="1" t="n">
+        <v>0.5351035499572755</v>
+      </c>
+      <c r="U250" s="1" t="n">
+        <v>0.00018310546875</v>
+      </c>
+      <c r="V250" s="1" t="n">
+        <v>0.08382812499999999</v>
+      </c>
+      <c r="W250" s="1" t="n">
+        <v>0.04191406249999999</v>
+      </c>
+      <c r="X250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y250" s="2" t="n">
+        <v>87.97440671920776</v>
+      </c>
+      <c r="Z250" s="3" t="n">
+        <v>10045.6</v>
+      </c>
+      <c r="AA250" s="3" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E251" t="n">
+        <v>10</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3</v>
+      </c>
+      <c r="G251" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>100</v>
+      </c>
+      <c r="K251" t="n">
+        <v>200</v>
+      </c>
+      <c r="L251" t="b">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>16</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P251" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q251" s="1" t="n">
+        <v>0.5078687953948975</v>
+      </c>
+      <c r="R251" s="1" t="n">
+        <v>285.4982757568359</v>
+      </c>
+      <c r="S251" s="1" t="n">
+        <v>63.48359942436218</v>
+      </c>
+      <c r="T251" s="1" t="n">
+        <v>0.5078687953948975</v>
+      </c>
+      <c r="U251" s="1" t="n">
+        <v>0.0001566410064697266</v>
+      </c>
+      <c r="V251" s="1" t="n">
+        <v>0.08835937499999999</v>
+      </c>
+      <c r="W251" s="1" t="n">
+        <v>0.0441796875</v>
+      </c>
+      <c r="X251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y251" s="2" t="n">
+        <v>76.70068097114563</v>
+      </c>
+      <c r="Z251" s="3" t="n">
+        <v>8700</v>
+      </c>
+      <c r="AA251" s="3" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E252" t="n">
+        <v>10</v>
+      </c>
+      <c r="F252" t="n">
+        <v>3</v>
+      </c>
+      <c r="G252" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>100</v>
+      </c>
+      <c r="K252" t="n">
+        <v>200</v>
+      </c>
+      <c r="L252" t="b">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>16</v>
+      </c>
+      <c r="N252" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q252" s="1" t="n">
+        <v>0.5178624725341797</v>
+      </c>
+      <c r="R252" s="1" t="n">
+        <v>287.9762744903564</v>
+      </c>
+      <c r="S252" s="1" t="n">
+        <v>57.54027472601997</v>
+      </c>
+      <c r="T252" s="1" t="n">
+        <v>0.5178624725341797</v>
+      </c>
+      <c r="U252" s="1" t="n">
+        <v>0.0001654624938964844</v>
+      </c>
+      <c r="V252" s="1" t="n">
+        <v>0.07476562499999999</v>
+      </c>
+      <c r="W252" s="1" t="n">
+        <v>0.03738281249999999</v>
+      </c>
+      <c r="X252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y252" s="2" t="n">
+        <v>91.60588693618774</v>
+      </c>
+      <c r="Z252" s="3" t="n">
+        <v>10788</v>
+      </c>
+      <c r="AA252" s="3" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E253" t="n">
+        <v>10</v>
+      </c>
+      <c r="F253" t="n">
+        <v>3</v>
+      </c>
+      <c r="G253" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>100</v>
+      </c>
+      <c r="K253" t="n">
+        <v>200</v>
+      </c>
+      <c r="L253" t="b">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>16</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P253" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q253" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R253" s="1" t="n">
+        <v>275.8961647461825</v>
+      </c>
+      <c r="S253" s="1" t="n">
+        <v>87.55420494079588</v>
+      </c>
+      <c r="T253" s="1" t="n">
+        <v>0.4377710247039794</v>
+      </c>
+      <c r="U253" s="1" t="n">
+        <v>9.608268737792969e-05</v>
+      </c>
+      <c r="V253" s="1" t="n">
+        <v>0.04984375</v>
+      </c>
+      <c r="W253" s="1" t="n">
+        <v>0.024921875</v>
+      </c>
+      <c r="X253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y253" s="2" t="n">
+        <v>50.86533141136169</v>
+      </c>
+      <c r="Z253" s="3" t="n">
+        <v>5846.4</v>
+      </c>
+      <c r="AA253" s="3" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E254" t="n">
+        <v>10</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3</v>
+      </c>
+      <c r="G254" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>100</v>
+      </c>
+      <c r="K254" t="n">
+        <v>200</v>
+      </c>
+      <c r="L254" t="b">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>16</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P254" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q254" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R254" s="1" t="n">
+        <v>256.1980325354749</v>
+      </c>
+      <c r="S254" s="1" t="n">
+        <v>82.39337730407716</v>
+      </c>
+      <c r="T254" s="1" t="n">
+        <v>0.4119668865203858</v>
+      </c>
+      <c r="U254" s="1" t="n">
+        <v>8.58306884765625e-05</v>
+      </c>
+      <c r="V254" s="1" t="n">
+        <v>0.038515625</v>
+      </c>
+      <c r="W254" s="1" t="n">
+        <v>0.0192578125</v>
+      </c>
+      <c r="X254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y254" s="2" t="n">
+        <v>47.45536494255066</v>
+      </c>
+      <c r="Z254" s="3" t="n">
+        <v>5266.4</v>
+      </c>
+      <c r="AA254" s="3" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E255" t="n">
+        <v>10</v>
+      </c>
+      <c r="F255" t="n">
+        <v>3</v>
+      </c>
+      <c r="G255" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>100</v>
+      </c>
+      <c r="K255" t="n">
+        <v>200</v>
+      </c>
+      <c r="L255" t="b">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>16</v>
+      </c>
+      <c r="N255" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P255" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q255" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R255" s="1" t="n">
+        <v>260.7411661286285</v>
+      </c>
+      <c r="S255" s="1" t="n">
+        <v>81.99464607238768</v>
+      </c>
+      <c r="T255" s="1" t="n">
+        <v>0.4099732303619384</v>
+      </c>
+      <c r="U255" s="1" t="n">
+        <v>8.463859558105469e-05</v>
+      </c>
+      <c r="V255" s="1" t="n">
+        <v>0.038515625</v>
+      </c>
+      <c r="W255" s="1" t="n">
+        <v>0.0192578125</v>
+      </c>
+      <c r="X255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y255" s="2" t="n">
+        <v>46.06671118736267</v>
+      </c>
+      <c r="Z255" s="3" t="n">
+        <v>5034.4</v>
+      </c>
+      <c r="AA255" s="3" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E256" t="n">
+        <v>10</v>
+      </c>
+      <c r="F256" t="n">
+        <v>3</v>
+      </c>
+      <c r="G256" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>100</v>
+      </c>
+      <c r="K256" t="n">
+        <v>200</v>
+      </c>
+      <c r="L256" t="b">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>16</v>
+      </c>
+      <c r="N256" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P256" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q256" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R256" s="1" t="n">
+        <v>289.0139140888331</v>
+      </c>
+      <c r="S256" s="1" t="n">
+        <v>93.03134536743165</v>
+      </c>
+      <c r="T256" s="1" t="n">
+        <v>0.4651567268371583</v>
+      </c>
+      <c r="U256" s="1" t="n">
+        <v>9.226799011230469e-05</v>
+      </c>
+      <c r="V256" s="1" t="n">
+        <v>0.07703125</v>
+      </c>
+      <c r="W256" s="1" t="n">
+        <v>0.038515625</v>
+      </c>
+      <c r="X256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y256" s="2" t="n">
+        <v>56.25240039825439</v>
+      </c>
+      <c r="Z256" s="3" t="n">
+        <v>7052.8</v>
+      </c>
+      <c r="AA256" s="3" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E257" t="n">
+        <v>10</v>
+      </c>
+      <c r="F257" t="n">
+        <v>3</v>
+      </c>
+      <c r="G257" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>100</v>
+      </c>
+      <c r="K257" t="n">
+        <v>200</v>
+      </c>
+      <c r="L257" t="b">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>16</v>
+      </c>
+      <c r="N257" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P257" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q257" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R257" s="1" t="n">
+        <v>282.6111418615216</v>
+      </c>
+      <c r="S257" s="1" t="n">
+        <v>91.6256103515625</v>
+      </c>
+      <c r="T257" s="1" t="n">
+        <v>0.4581280517578125</v>
+      </c>
+      <c r="U257" s="1" t="n">
+        <v>8.96453857421875e-05</v>
+      </c>
+      <c r="V257" s="1" t="n">
+        <v>0.06570312499999999</v>
+      </c>
+      <c r="W257" s="1" t="n">
+        <v>0.03285156249999999</v>
+      </c>
+      <c r="X257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y257" s="2" t="n">
+        <v>51.04036974906921</v>
+      </c>
+      <c r="Z257" s="3" t="n">
+        <v>5776.8</v>
+      </c>
+      <c r="AA257" s="3" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E258" t="n">
+        <v>10</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3</v>
+      </c>
+      <c r="G258" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>100</v>
+      </c>
+      <c r="K258" t="n">
+        <v>200</v>
+      </c>
+      <c r="L258" t="b">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>16</v>
+      </c>
+      <c r="N258" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P258" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q258" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R258" s="1" t="n">
+        <v>269.0513287499836</v>
+      </c>
+      <c r="S258" s="1" t="n">
+        <v>86.15736198425292</v>
+      </c>
+      <c r="T258" s="1" t="n">
+        <v>0.4307868099212646</v>
+      </c>
+      <c r="U258" s="1" t="n">
+        <v>9.369850158691406e-05</v>
+      </c>
+      <c r="V258" s="1" t="n">
+        <v>0.052109375</v>
+      </c>
+      <c r="W258" s="1" t="n">
+        <v>0.0260546875</v>
+      </c>
+      <c r="X258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y258" s="2" t="n">
+        <v>49.50270366668701</v>
+      </c>
+      <c r="Z258" s="3" t="n">
+        <v>5637.6</v>
+      </c>
+      <c r="AA258" s="3" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E259" t="n">
+        <v>10</v>
+      </c>
+      <c r="F259" t="n">
+        <v>3</v>
+      </c>
+      <c r="G259" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>100</v>
+      </c>
+      <c r="K259" t="n">
+        <v>200</v>
+      </c>
+      <c r="L259" t="b">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>16</v>
+      </c>
+      <c r="N259" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P259" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q259" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R259" s="1" t="n">
+        <v>273.2420568372783</v>
+      </c>
+      <c r="S259" s="1" t="n">
+        <v>87.01451683044434</v>
+      </c>
+      <c r="T259" s="1" t="n">
+        <v>0.4350725841522217</v>
+      </c>
+      <c r="U259" s="1" t="n">
+        <v>8.678436279296875e-05</v>
+      </c>
+      <c r="V259" s="1" t="n">
+        <v>0.047578125</v>
+      </c>
+      <c r="W259" s="1" t="n">
+        <v>0.0237890625</v>
+      </c>
+      <c r="X259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y259" s="2" t="n">
+        <v>49.50866103172302</v>
+      </c>
+      <c r="Z259" s="3" t="n">
+        <v>5591.2</v>
+      </c>
+      <c r="AA259" s="3" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E260" t="n">
+        <v>10</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3</v>
+      </c>
+      <c r="G260" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>100</v>
+      </c>
+      <c r="K260" t="n">
+        <v>200</v>
+      </c>
+      <c r="L260" t="b">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>16</v>
+      </c>
+      <c r="N260" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P260" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q260" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R260" s="1" t="n">
+        <v>265.4891300325332</v>
+      </c>
+      <c r="S260" s="1" t="n">
+        <v>85.38083267211913</v>
+      </c>
+      <c r="T260" s="1" t="n">
+        <v>0.4269041633605957</v>
+      </c>
+      <c r="U260" s="1" t="n">
+        <v>9.465217590332031e-05</v>
+      </c>
+      <c r="V260" s="1" t="n">
+        <v>0.052109375</v>
+      </c>
+      <c r="W260" s="1" t="n">
+        <v>0.0260546875</v>
+      </c>
+      <c r="X260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y260" s="2" t="n">
+        <v>48.77807402610779</v>
+      </c>
+      <c r="Z260" s="3" t="n">
+        <v>5637.6</v>
+      </c>
+      <c r="AA260" s="3" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E261" t="n">
+        <v>10</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3</v>
+      </c>
+      <c r="G261" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>100</v>
+      </c>
+      <c r="K261" t="n">
+        <v>200</v>
+      </c>
+      <c r="L261" t="b">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>16</v>
+      </c>
+      <c r="N261" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P261" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q261" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R261" s="1" t="n">
+        <v>261.3617287330304</v>
+      </c>
+      <c r="S261" s="1" t="n">
+        <v>83.23642921447755</v>
+      </c>
+      <c r="T261" s="1" t="n">
+        <v>0.4161821460723877</v>
+      </c>
+      <c r="U261" s="1" t="n">
+        <v>9.107589721679688e-05</v>
+      </c>
+      <c r="V261" s="1" t="n">
+        <v>0.04078125</v>
+      </c>
+      <c r="W261" s="1" t="n">
+        <v>0.020390625</v>
+      </c>
+      <c r="X261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y261" s="2" t="n">
+        <v>48.44722485542297</v>
+      </c>
+      <c r="Z261" s="3" t="n">
+        <v>5521.6</v>
+      </c>
+      <c r="AA261" s="3" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E262" t="n">
+        <v>10</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3</v>
+      </c>
+      <c r="G262" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>100</v>
+      </c>
+      <c r="K262" t="n">
+        <v>200</v>
+      </c>
+      <c r="L262" t="b">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>16</v>
+      </c>
+      <c r="N262" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P262" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q262" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R262" s="1" t="n">
+        <v>265.637090020511</v>
+      </c>
+      <c r="S262" s="1" t="n">
+        <v>85.32383155822754</v>
+      </c>
+      <c r="T262" s="1" t="n">
+        <v>0.4266191577911377</v>
+      </c>
+      <c r="U262" s="1" t="n">
+        <v>9.107589721679688e-05</v>
+      </c>
+      <c r="V262" s="1" t="n">
+        <v>0.04078125</v>
+      </c>
+      <c r="W262" s="1" t="n">
+        <v>0.020390625</v>
+      </c>
+      <c r="X262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y262" s="2" t="n">
+        <v>46.18641138076782</v>
+      </c>
+      <c r="Z262" s="3" t="n">
+        <v>5057.6</v>
+      </c>
+      <c r="AA262" s="3" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E263" t="n">
+        <v>10</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3</v>
+      </c>
+      <c r="G263" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>100</v>
+      </c>
+      <c r="K263" t="n">
+        <v>200</v>
+      </c>
+      <c r="L263" t="b">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>16</v>
+      </c>
+      <c r="N263" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P263" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q263" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R263" s="1" t="n">
+        <v>256.5652883782095</v>
+      </c>
+      <c r="S263" s="1" t="n">
+        <v>120.0701236724854</v>
+      </c>
+      <c r="T263" s="1" t="n">
+        <v>0.3602103710174561</v>
+      </c>
+      <c r="U263" s="1" t="n">
+        <v>5.388259887695312e-05</v>
+      </c>
+      <c r="V263" s="1" t="n">
+        <v>0.02265625</v>
+      </c>
+      <c r="W263" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="X263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y263" s="2" t="n">
+        <v>26.38286209106445</v>
+      </c>
+      <c r="Z263" s="3" t="n">
+        <v>2737.6</v>
+      </c>
+      <c r="AA263" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E264" t="n">
+        <v>10</v>
+      </c>
+      <c r="F264" t="n">
+        <v>3</v>
+      </c>
+      <c r="G264" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>100</v>
+      </c>
+      <c r="K264" t="n">
+        <v>200</v>
+      </c>
+      <c r="L264" t="b">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>16</v>
+      </c>
+      <c r="N264" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P264" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q264" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R264" s="1" t="n">
+        <v>257.5618953990793</v>
+      </c>
+      <c r="S264" s="1" t="n">
+        <v>124.2687606811523</v>
+      </c>
+      <c r="T264" s="1" t="n">
+        <v>0.372806282043457</v>
+      </c>
+      <c r="U264" s="1" t="n">
+        <v>5.292892456054688e-05</v>
+      </c>
+      <c r="V264" s="1" t="n">
+        <v>0.024921875</v>
+      </c>
+      <c r="W264" s="1" t="n">
+        <v>0.0124609375</v>
+      </c>
+      <c r="X264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y264" s="2" t="n">
+        <v>30.13100481033325</v>
+      </c>
+      <c r="Z264" s="3" t="n">
+        <v>3456.8</v>
+      </c>
+      <c r="AA264" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E265" t="n">
+        <v>10</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3</v>
+      </c>
+      <c r="G265" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>100</v>
+      </c>
+      <c r="K265" t="n">
+        <v>200</v>
+      </c>
+      <c r="L265" t="b">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>16</v>
+      </c>
+      <c r="N265" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P265" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q265" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R265" s="1" t="n">
+        <v>260.7085975883366</v>
+      </c>
+      <c r="S265" s="1" t="n">
+        <v>120.9187412261963</v>
+      </c>
+      <c r="T265" s="1" t="n">
+        <v>0.3627562236785889</v>
+      </c>
+      <c r="U265" s="1" t="n">
+        <v>5.221366882324219e-05</v>
+      </c>
+      <c r="V265" s="1" t="n">
+        <v>0.024921875</v>
+      </c>
+      <c r="W265" s="1" t="n">
+        <v>0.0124609375</v>
+      </c>
+      <c r="X265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y265" s="2" t="n">
+        <v>27.39104962348938</v>
+      </c>
+      <c r="Z265" s="3" t="n">
+        <v>3039.2</v>
+      </c>
+      <c r="AA265" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E266" t="n">
+        <v>10</v>
+      </c>
+      <c r="F266" t="n">
+        <v>3</v>
+      </c>
+      <c r="G266" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>100</v>
+      </c>
+      <c r="K266" t="n">
+        <v>200</v>
+      </c>
+      <c r="L266" t="b">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>16</v>
+      </c>
+      <c r="N266" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P266" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q266" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R266" s="1" t="n">
+        <v>263.107358917244</v>
+      </c>
+      <c r="S266" s="1" t="n">
+        <v>125.8766682942708</v>
+      </c>
+      <c r="T266" s="1" t="n">
+        <v>0.3776300048828125</v>
+      </c>
+      <c r="U266" s="1" t="n">
+        <v>5.841255187988281e-05</v>
+      </c>
+      <c r="V266" s="1" t="n">
+        <v>0.029453125</v>
+      </c>
+      <c r="W266" s="1" t="n">
+        <v>0.0147265625</v>
+      </c>
+      <c r="X266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y266" s="2" t="n">
+        <v>26.89695000648499</v>
+      </c>
+      <c r="Z266" s="3" t="n">
+        <v>2946.4</v>
+      </c>
+      <c r="AA266" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E267" t="n">
+        <v>10</v>
+      </c>
+      <c r="F267" t="n">
+        <v>3</v>
+      </c>
+      <c r="G267" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>100</v>
+      </c>
+      <c r="K267" t="n">
+        <v>200</v>
+      </c>
+      <c r="L267" t="b">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>16</v>
+      </c>
+      <c r="N267" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q267" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R267" s="1" t="n">
+        <v>257.3756365244654</v>
+      </c>
+      <c r="S267" s="1" t="n">
+        <v>124.0181891123454</v>
+      </c>
+      <c r="T267" s="1" t="n">
+        <v>0.3720545673370361</v>
+      </c>
+      <c r="U267" s="1" t="n">
+        <v>5.006790161132812e-05</v>
+      </c>
+      <c r="V267" s="1" t="n">
+        <v>0.0271875</v>
+      </c>
+      <c r="W267" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="X267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y267" s="2" t="n">
+        <v>28.70424699783325</v>
+      </c>
+      <c r="Z267" s="3" t="n">
+        <v>3201.6</v>
+      </c>
+      <c r="AA267" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E268" t="n">
+        <v>10</v>
+      </c>
+      <c r="F268" t="n">
+        <v>3</v>
+      </c>
+      <c r="G268" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>100</v>
+      </c>
+      <c r="K268" t="n">
+        <v>200</v>
+      </c>
+      <c r="L268" t="b">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>16</v>
+      </c>
+      <c r="N268" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P268" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q268" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R268" s="1" t="n">
+        <v>267.4552019949498</v>
+      </c>
+      <c r="S268" s="1" t="n">
+        <v>126.7945861816406</v>
+      </c>
+      <c r="T268" s="1" t="n">
+        <v>0.3803837585449218</v>
+      </c>
+      <c r="U268" s="1" t="n">
+        <v>6.222724914550781e-05</v>
+      </c>
+      <c r="V268" s="1" t="n">
+        <v>0.03171875</v>
+      </c>
+      <c r="W268" s="1" t="n">
+        <v>0.015859375</v>
+      </c>
+      <c r="X268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y268" s="2" t="n">
+        <v>30.28301548957825</v>
+      </c>
+      <c r="Z268" s="3" t="n">
+        <v>3526.4</v>
+      </c>
+      <c r="AA268" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E269" t="n">
+        <v>10</v>
+      </c>
+      <c r="F269" t="n">
+        <v>3</v>
+      </c>
+      <c r="G269" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>100</v>
+      </c>
+      <c r="K269" t="n">
+        <v>200</v>
+      </c>
+      <c r="L269" t="b">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>16</v>
+      </c>
+      <c r="N269" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P269" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q269" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R269" s="1" t="n">
+        <v>273.038747500563</v>
+      </c>
+      <c r="S269" s="1" t="n">
+        <v>130.050376256307</v>
+      </c>
+      <c r="T269" s="1" t="n">
+        <v>0.3901511287689209</v>
+      </c>
+      <c r="U269" s="1" t="n">
+        <v>5.412101745605469e-05</v>
+      </c>
+      <c r="V269" s="1" t="n">
+        <v>0.04078125</v>
+      </c>
+      <c r="W269" s="1" t="n">
+        <v>0.020390625</v>
+      </c>
+      <c r="X269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y269" s="2" t="n">
+        <v>29.26449942588806</v>
+      </c>
+      <c r="Z269" s="3" t="n">
+        <v>3480</v>
+      </c>
+      <c r="AA269" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E270" t="n">
+        <v>10</v>
+      </c>
+      <c r="F270" t="n">
+        <v>3</v>
+      </c>
+      <c r="G270" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>100</v>
+      </c>
+      <c r="K270" t="n">
+        <v>200</v>
+      </c>
+      <c r="L270" t="b">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>16</v>
+      </c>
+      <c r="N270" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P270" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q270" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R270" s="1" t="n">
+        <v>265.3529872932415</v>
+      </c>
+      <c r="S270" s="1" t="n">
+        <v>125.9756056467692</v>
+      </c>
+      <c r="T270" s="1" t="n">
+        <v>0.3779268169403076</v>
+      </c>
+      <c r="U270" s="1" t="n">
+        <v>5.388259887695312e-05</v>
+      </c>
+      <c r="V270" s="1" t="n">
+        <v>0.0271875</v>
+      </c>
+      <c r="W270" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="X270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y270" s="2" t="n">
+        <v>30.21187782287598</v>
+      </c>
+      <c r="Z270" s="3" t="n">
+        <v>3480</v>
+      </c>
+      <c r="AA270" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E271" t="n">
+        <v>10</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3</v>
+      </c>
+      <c r="G271" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>100</v>
+      </c>
+      <c r="K271" t="n">
+        <v>200</v>
+      </c>
+      <c r="L271" t="b">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>16</v>
+      </c>
+      <c r="N271" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P271" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q271" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R271" s="1" t="n">
+        <v>259.844681399039</v>
+      </c>
+      <c r="S271" s="1" t="n">
+        <v>124.5962810516357</v>
+      </c>
+      <c r="T271" s="1" t="n">
+        <v>0.3737888431549072</v>
+      </c>
+      <c r="U271" s="1" t="n">
+        <v>8.606910705566406e-05</v>
+      </c>
+      <c r="V271" s="1" t="n">
+        <v>0.029453125</v>
+      </c>
+      <c r="W271" s="1" t="n">
+        <v>0.0147265625</v>
+      </c>
+      <c r="X271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y271" s="2" t="n">
+        <v>29.14210557937622</v>
+      </c>
+      <c r="Z271" s="3" t="n">
+        <v>3224.8</v>
+      </c>
+      <c r="AA271" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E272" t="n">
+        <v>10</v>
+      </c>
+      <c r="F272" t="n">
+        <v>3</v>
+      </c>
+      <c r="G272" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>100</v>
+      </c>
+      <c r="K272" t="n">
+        <v>200</v>
+      </c>
+      <c r="L272" t="b">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>16</v>
+      </c>
+      <c r="N272" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P272" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q272" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R272" s="1" t="n">
+        <v>271.6822639362386</v>
+      </c>
+      <c r="S272" s="1" t="n">
+        <v>128.4830474853516</v>
+      </c>
+      <c r="T272" s="1" t="n">
+        <v>0.3854491424560547</v>
+      </c>
+      <c r="U272" s="1" t="n">
+        <v>5.292892456054688e-05</v>
+      </c>
+      <c r="V272" s="1" t="n">
+        <v>0.024921875</v>
+      </c>
+      <c r="W272" s="1" t="n">
+        <v>0.0124609375</v>
+      </c>
+      <c r="X272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y272" s="2" t="n">
+        <v>28.39510703086853</v>
+      </c>
+      <c r="Z272" s="3" t="n">
+        <v>3178.4</v>
+      </c>
+      <c r="AA272" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E273" t="n">
+        <v>10</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3</v>
+      </c>
+      <c r="G273" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>100</v>
+      </c>
+      <c r="K273" t="n">
+        <v>200</v>
+      </c>
+      <c r="L273" t="b">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>16</v>
+      </c>
+      <c r="N273" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P273" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q273" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R273" s="1" t="n">
+        <v>315.862151462047</v>
+      </c>
+      <c r="S273" s="1" t="n">
+        <v>181.4416217803955</v>
+      </c>
+      <c r="T273" s="1" t="n">
+        <v>0.362883243560791</v>
+      </c>
+      <c r="U273" s="1" t="n">
+        <v>3.600120544433594e-05</v>
+      </c>
+      <c r="V273" s="1" t="n">
+        <v>0.018125</v>
+      </c>
+      <c r="W273" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="X273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="2" t="n">
+        <v>20.32249402999878</v>
+      </c>
+      <c r="Z273" s="3" t="n">
+        <v>2227.2</v>
+      </c>
+      <c r="AA273" s="3" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E274" t="n">
+        <v>10</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3</v>
+      </c>
+      <c r="G274" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>100</v>
+      </c>
+      <c r="K274" t="n">
+        <v>200</v>
+      </c>
+      <c r="L274" t="b">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>16</v>
+      </c>
+      <c r="N274" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P274" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q274" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R274" s="1" t="n">
+        <v>324.9901513028657</v>
+      </c>
+      <c r="S274" s="1" t="n">
+        <v>184.2643785476685</v>
+      </c>
+      <c r="T274" s="1" t="n">
+        <v>0.3685287570953369</v>
+      </c>
+      <c r="U274" s="1" t="n">
+        <v>3.480911254882812e-05</v>
+      </c>
+      <c r="V274" s="1" t="n">
+        <v>0.018125</v>
+      </c>
+      <c r="W274" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="X274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y274" s="2" t="n">
+        <v>20.1064829826355</v>
+      </c>
+      <c r="Z274" s="3" t="n">
+        <v>2227.2</v>
+      </c>
+      <c r="AA274" s="3" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E275" t="n">
+        <v>10</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3</v>
+      </c>
+      <c r="G275" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>100</v>
+      </c>
+      <c r="K275" t="n">
+        <v>200</v>
+      </c>
+      <c r="L275" t="b">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>16</v>
+      </c>
+      <c r="N275" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q275" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R275" s="1" t="n">
+        <v>326.9329770958942</v>
+      </c>
+      <c r="S275" s="1" t="n">
+        <v>184.7280836105347</v>
+      </c>
+      <c r="T275" s="1" t="n">
+        <v>0.3694561672210693</v>
+      </c>
+      <c r="U275" s="1" t="n">
+        <v>3.4332275390625e-05</v>
+      </c>
+      <c r="V275" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="W275" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="X275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y275" s="2" t="n">
+        <v>20.48614430427551</v>
+      </c>
+      <c r="Z275" s="3" t="n">
+        <v>2273.6</v>
+      </c>
+      <c r="AA275" s="3" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>2</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E276" t="n">
+        <v>10</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3</v>
+      </c>
+      <c r="G276" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>100</v>
+      </c>
+      <c r="K276" t="n">
+        <v>200</v>
+      </c>
+      <c r="L276" t="b">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>16</v>
+      </c>
+      <c r="N276" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q276" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R276" s="1" t="n">
+        <v>336.5843024199037</v>
+      </c>
+      <c r="S276" s="1" t="n">
+        <v>191.0444259643555</v>
+      </c>
+      <c r="T276" s="1" t="n">
+        <v>0.3820888519287109</v>
+      </c>
+      <c r="U276" s="1" t="n">
+        <v>3.361701965332031e-05</v>
+      </c>
+      <c r="V276" s="1" t="n">
+        <v>0.02265625</v>
+      </c>
+      <c r="W276" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="X276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y276" s="2" t="n">
+        <v>19.89583539962769</v>
+      </c>
+      <c r="Z276" s="3" t="n">
+        <v>2180.8</v>
+      </c>
+      <c r="AA276" s="3" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E277" t="n">
+        <v>10</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3</v>
+      </c>
+      <c r="G277" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>100</v>
+      </c>
+      <c r="K277" t="n">
+        <v>200</v>
+      </c>
+      <c r="L277" t="b">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>16</v>
+      </c>
+      <c r="N277" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q277" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R277" s="1" t="n">
+        <v>321.1769480402114</v>
+      </c>
+      <c r="S277" s="1" t="n">
+        <v>184.0638780593872</v>
+      </c>
+      <c r="T277" s="1" t="n">
+        <v>0.3681277561187744</v>
+      </c>
+      <c r="U277" s="1" t="n">
+        <v>3.814697265625e-05</v>
+      </c>
+      <c r="V277" s="1" t="n">
+        <v>0.020390625</v>
+      </c>
+      <c r="W277" s="1" t="n">
+        <v>0.0101953125</v>
+      </c>
+      <c r="X277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y277" s="2" t="n">
+        <v>19.39627695083618</v>
+      </c>
+      <c r="Z277" s="3" t="n">
+        <v>2064.8</v>
+      </c>
+      <c r="AA277" s="3" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E278" t="n">
+        <v>10</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3</v>
+      </c>
+      <c r="G278" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>100</v>
+      </c>
+      <c r="K278" t="n">
+        <v>200</v>
+      </c>
+      <c r="L278" t="b">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>16</v>
+      </c>
+      <c r="N278" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P278" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q278" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R278" s="1" t="n">
+        <v>332.8028283116819</v>
+      </c>
+      <c r="S278" s="1" t="n">
+        <v>188.2152223587036</v>
+      </c>
+      <c r="T278" s="1" t="n">
+        <v>0.3764304447174073</v>
+      </c>
+      <c r="U278" s="1" t="n">
+        <v>3.719329833984375e-05</v>
+      </c>
+      <c r="V278" s="1" t="n">
+        <v>0.020390625</v>
+      </c>
+      <c r="W278" s="1" t="n">
+        <v>0.0101953125</v>
+      </c>
+      <c r="X278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y278" s="2" t="n">
+        <v>19.2799072265625</v>
+      </c>
+      <c r="Z278" s="3" t="n">
+        <v>2064.8</v>
+      </c>
+      <c r="AA278" s="3" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E279" t="n">
+        <v>10</v>
+      </c>
+      <c r="F279" t="n">
+        <v>3</v>
+      </c>
+      <c r="G279" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>100</v>
+      </c>
+      <c r="K279" t="n">
+        <v>200</v>
+      </c>
+      <c r="L279" t="b">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>16</v>
+      </c>
+      <c r="N279" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q279" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R279" s="1" t="n">
+        <v>328.1282614918127</v>
+      </c>
+      <c r="S279" s="1" t="n">
+        <v>190.1664590835571</v>
+      </c>
+      <c r="T279" s="1" t="n">
+        <v>0.3803329181671142</v>
+      </c>
+      <c r="U279" s="1" t="n">
+        <v>3.814697265625e-05</v>
+      </c>
+      <c r="V279" s="1" t="n">
+        <v>0.024921875</v>
+      </c>
+      <c r="W279" s="1" t="n">
+        <v>0.0124609375</v>
+      </c>
+      <c r="X279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y279" s="2" t="n">
+        <v>21.41335678100586</v>
+      </c>
+      <c r="Z279" s="3" t="n">
+        <v>2482.4</v>
+      </c>
+      <c r="AA279" s="3" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E280" t="n">
+        <v>10</v>
+      </c>
+      <c r="F280" t="n">
+        <v>3</v>
+      </c>
+      <c r="G280" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>100</v>
+      </c>
+      <c r="K280" t="n">
+        <v>200</v>
+      </c>
+      <c r="L280" t="b">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>16</v>
+      </c>
+      <c r="N280" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P280" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q280" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R280" s="1" t="n">
+        <v>336.197717811512</v>
+      </c>
+      <c r="S280" s="1" t="n">
+        <v>192.3226070404053</v>
+      </c>
+      <c r="T280" s="1" t="n">
+        <v>0.3846452140808105</v>
+      </c>
+      <c r="U280" s="1" t="n">
+        <v>4.029273986816406e-05</v>
+      </c>
+      <c r="V280" s="1" t="n">
+        <v>0.0271875</v>
+      </c>
+      <c r="W280" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="X280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y280" s="2" t="n">
+        <v>19.80769491195679</v>
+      </c>
+      <c r="Z280" s="3" t="n">
+        <v>2134.4</v>
+      </c>
+      <c r="AA280" s="3" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E281" t="n">
+        <v>10</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3</v>
+      </c>
+      <c r="G281" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>100</v>
+      </c>
+      <c r="K281" t="n">
+        <v>200</v>
+      </c>
+      <c r="L281" t="b">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>16</v>
+      </c>
+      <c r="N281" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P281" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q281" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R281" s="1" t="n">
+        <v>312.2607868473704</v>
+      </c>
+      <c r="S281" s="1" t="n">
+        <v>178.6311340332031</v>
+      </c>
+      <c r="T281" s="1" t="n">
+        <v>0.3572622680664063</v>
+      </c>
+      <c r="U281" s="1" t="n">
+        <v>4.601478576660156e-05</v>
+      </c>
+      <c r="V281" s="1" t="n">
+        <v>0.015859375</v>
+      </c>
+      <c r="W281" s="1" t="n">
+        <v>0.007929687499999999</v>
+      </c>
+      <c r="X281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y281" s="2" t="n">
+        <v>20.14435839653015</v>
+      </c>
+      <c r="Z281" s="3" t="n">
+        <v>2204</v>
+      </c>
+      <c r="AA281" s="3" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E282" t="n">
+        <v>10</v>
+      </c>
+      <c r="F282" t="n">
+        <v>3</v>
+      </c>
+      <c r="G282" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>100</v>
+      </c>
+      <c r="K282" t="n">
+        <v>200</v>
+      </c>
+      <c r="L282" t="b">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>16</v>
+      </c>
+      <c r="N282" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P282" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q282" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R282" s="1" t="n">
+        <v>322.3566968032326</v>
+      </c>
+      <c r="S282" s="1" t="n">
+        <v>182.4570655822754</v>
+      </c>
+      <c r="T282" s="1" t="n">
+        <v>0.3649141311645508</v>
+      </c>
+      <c r="U282" s="1" t="n">
+        <v>4.00543212890625e-05</v>
+      </c>
+      <c r="V282" s="1" t="n">
+        <v>0.02265625</v>
+      </c>
+      <c r="W282" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="X282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y282" s="2" t="n">
+        <v>19.92016530036926</v>
+      </c>
+      <c r="Z282" s="3" t="n">
+        <v>2180.8</v>
+      </c>
+      <c r="AA282" s="3" t="n">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
